--- a/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
+++ b/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_test\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Color Codes</t>
   </si>
@@ -129,12 +129,6 @@
     <t>PSU830</t>
   </si>
   <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.231</t>
-  </si>
-  <si>
     <t>PSU820</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>Default System Load</t>
+  </si>
+  <si>
+    <t>LoadingDetail</t>
+  </si>
+  <si>
+    <t>System (A)</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G8" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
     <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
       </c>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -588,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -600,13 +600,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -629,10 +629,13 @@
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -651,14 +654,17 @@
       <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>34</v>
+      <c r="G8" s="11">
+        <v>0.71799999999999997</v>
       </c>
       <c r="H8" s="11">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -677,14 +683,17 @@
       <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
+      <c r="G9" s="11">
+        <v>0.71799999999999997</v>
       </c>
       <c r="H9" s="11">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
@@ -701,16 +710,19 @@
         <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="G10" s="11">
+        <v>0.56799999999999995</v>
+      </c>
       <c r="H10" s="11">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -727,13 +739,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.56799999999999995</v>
       </c>
       <c r="H11" s="11">
-        <v>0.224</v>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
+++ b/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -141,7 +141,7 @@
     <t>LoadingDetail</t>
   </si>
   <si>
-    <t>System (A)</t>
+    <t>Total System Load(A)</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G11"/>
+      <selection activeCell="I10" activeCellId="1" sqref="I1:I1048576 I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +556,7 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">

--- a/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
+++ b/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" activeCellId="1" sqref="I1:I1048576 I10"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
+++ b/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45DB9A-461E-4508-B8AB-41B5E111C7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -108,33 +109,12 @@
     <t/>
   </si>
   <si>
-    <t>Verify maximum Battery standby and Battery alarm limits</t>
-  </si>
-  <si>
     <t>MX4000</t>
   </si>
   <si>
-    <t xml:space="preserve">NGC-488 </t>
-  </si>
-  <si>
-    <t>System Load</t>
-  </si>
-  <si>
     <t>PSU Type</t>
   </si>
   <si>
-    <t>PSU800</t>
-  </si>
-  <si>
-    <t>PSU830</t>
-  </si>
-  <si>
-    <t>PSU820</t>
-  </si>
-  <si>
-    <t>PSU821</t>
-  </si>
-  <si>
     <t>Default System Load</t>
   </si>
   <si>
@@ -142,12 +122,30 @@
   </si>
   <si>
     <t>Total System Load(A)</t>
+  </si>
+  <si>
+    <t>PSB800</t>
+  </si>
+  <si>
+    <t>0.720</t>
+  </si>
+  <si>
+    <t>Expected System Load</t>
+  </si>
+  <si>
+    <t>verifySystemLoadValueOnChangingPSU</t>
+  </si>
+  <si>
+    <t>NGC-605/T184 &amp; T185 OR TC-50946 &amp; 50947</t>
+  </si>
+  <si>
+    <t>ZX1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -252,6 +250,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,24 +561,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -593,8 +594,8 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
+      <c r="B4" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
@@ -624,27 +625,27 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -653,21 +654,21 @@
         <v>16</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="11">
-        <v>0.71799999999999997</v>
-      </c>
       <c r="H8" s="11">
-        <v>0.71799999999999997</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -685,24 +686,24 @@
         <v>32</v>
       </c>
       <c r="G9" s="11">
-        <v>0.71799999999999997</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H9" s="11">
-        <v>0.71799999999999997</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
+      <c r="C10" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -711,45 +712,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="11">
-        <v>0.56799999999999995</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="H10" s="11">
-        <v>0.56799999999999995</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
+++ b/Test Data/TC_50946_50947_Verify_System_Load_On_Changing_PSU_Of_Panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45DB9A-461E-4508-B8AB-41B5E111C7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D8A55-4D1B-488A-A349-F051C19248FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" activeCellId="1" sqref="D10 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,13 +668,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
+      <c r="C9" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -686,10 +686,10 @@
         <v>32</v>
       </c>
       <c r="G9" s="11">
-        <v>0.68400000000000005</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="H9" s="11">
-        <v>0.61299999999999999</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>31</v>
@@ -697,13 +697,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>26</v>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -715,10 +715,10 @@
         <v>32</v>
       </c>
       <c r="G10" s="11">
-        <v>0.61799999999999999</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H10" s="11">
-        <v>0.55500000000000005</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>31</v>
